--- a/medicine/Hématologie/Anticoagulant_oral/Anticoagulant_oral.xlsx
+++ b/medicine/Hématologie/Anticoagulant_oral/Anticoagulant_oral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anticoagulants oraux sont des médicaments sous forme de comprimés, destinés à empêcher la formation de caillots dans le système circulatoire. Ils se distinguent des autres anticoagulants administrés par injection.
 </t>
@@ -511,7 +523,9 @@
           <t>Les anti-vitamines K</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette inhibition se fait de façon compétitive sur les protéines vitamine K-dépendantes.
 Il existe 2 types d'AVK (anti vitamines K) : 
@@ -546,10 +560,12 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs médicaments par voie orale et ne nécessitant pas de surveillance sanguine régulière sont en cours de développement. Le Ximélagatran répond à ces critères mais sa commercialisation a été arrêtée en raison d'effets secondaires. Le dabigatran ne semble pas avoir ces derniers. 
-Le rivaroxaban est un inhibiteur du facteur de la coagulation Xa. Il a eu son autorisation de mise sur le marché européenne le 30 septembre 2008 et une AMM en France le 21 janvier 2009[1] pour une indication précise : la prévention des événements thromboemboliques après une chirurgie de la hanche ou du genou. Il a été testé avec un certain succès dans la prévention des phlébites après une intervention orthopédique[2] et s'avérant même être supérieur, lorsqu'il est donné de manière prolongée, par rapport à un traitement classique par héparine de bas poids moléculaire administrée par injections[3].
+Le rivaroxaban est un inhibiteur du facteur de la coagulation Xa. Il a eu son autorisation de mise sur le marché européenne le 30 septembre 2008 et une AMM en France le 21 janvier 2009 pour une indication précise : la prévention des événements thromboemboliques après une chirurgie de la hanche ou du genou. Il a été testé avec un certain succès dans la prévention des phlébites après une intervention orthopédique et s'avérant même être supérieur, lorsqu'il est donné de manière prolongée, par rapport à un traitement classique par héparine de bas poids moléculaire administrée par injections.
 Voir les Inhibiteurs des Protéases de la coagulation.
 </t>
         </is>
